--- a/Senaryo 1.xlsx
+++ b/Senaryo 1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALPER\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15576" windowHeight="7776"/>
   </bookViews>
   <sheets>
-    <sheet name="SENARYO 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Senaryo 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
-  <si>
-    <t>SENARYO 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
   <si>
     <t>UÇAK NO</t>
   </si>
@@ -111,7 +103,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -123,43 +115,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -250,10 +205,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -261,21 +219,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -289,21 +250,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -373,7 +319,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -408,7 +354,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -585,7 +531,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -593,416 +539,399 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="5" width="14.28515625" customWidth="1"/>
+    <col min="4" max="5" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="5" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" s="8" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="C2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8">
+        <v>5.1658950617283952E-3</v>
+      </c>
+      <c r="F2" s="8">
+        <v>7.7430555555555551E-3</v>
+      </c>
+      <c r="G2" s="8">
+        <v>1.1215277777777777E-2</v>
+      </c>
+      <c r="H2" s="8">
+        <v>6.7708333333333336E-3</v>
+      </c>
+      <c r="I2" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J2" s="10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>1</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="8">
+        <v>8.6805555555555551E-4</v>
+      </c>
+      <c r="E3" s="8">
+        <v>5.4552469135802466E-3</v>
+      </c>
+      <c r="F3" s="8">
+        <v>8.611111111111111E-3</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1.2083333333333333E-2</v>
+      </c>
+      <c r="H3" s="8">
+        <v>7.6388888888888878E-3</v>
+      </c>
+      <c r="I3" s="9">
+        <v>3000</v>
+      </c>
+      <c r="J3" s="10">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D4" s="8">
+        <v>1.9097222222222222E-3</v>
+      </c>
+      <c r="E4" s="8">
+        <v>5.8024691358024693E-3</v>
+      </c>
+      <c r="F4" s="8">
+        <v>9.6527777777777775E-3</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1.3124999999999998E-2</v>
+      </c>
+      <c r="H4" s="8">
+        <v>9.3749999999999997E-3</v>
+      </c>
+      <c r="I4" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J4" s="10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="11">
-        <v>0</v>
-      </c>
-      <c r="E3" s="11">
-        <v>5.1658950617283952E-3</v>
-      </c>
-      <c r="F3" s="11">
-        <v>7.7430555555555551E-3</v>
-      </c>
-      <c r="G3" s="11">
-        <v>1.1215277777777777E-2</v>
-      </c>
-      <c r="H3" s="11">
-        <v>6.7708333333333336E-3</v>
-      </c>
-      <c r="I3" s="12">
+      <c r="D5" s="8">
+        <v>3.2986111111111111E-3</v>
+      </c>
+      <c r="E5" s="8">
+        <v>6.2654320987654312E-3</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1.1041666666666667E-2</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1.4513888888888885E-2</v>
+      </c>
+      <c r="H5" s="8">
+        <v>1.0069444444444443E-2</v>
+      </c>
+      <c r="I5" s="9">
+        <v>3000</v>
+      </c>
+      <c r="J5" s="10">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="8">
+        <v>4.340277777777778E-3</v>
+      </c>
+      <c r="E6" s="8">
+        <v>6.6126543209876539E-3</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1.2083333333333333E-2</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1.5555555555555552E-2</v>
+      </c>
+      <c r="H6" s="8">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="I6" s="9">
+        <v>3000</v>
+      </c>
+      <c r="J6" s="10">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="8">
+        <v>5.208333333333333E-3</v>
+      </c>
+      <c r="E7" s="8">
+        <v>6.9020061728395053E-3</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1.2951388888888889E-2</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1.6423611111111108E-2</v>
+      </c>
+      <c r="H7" s="8">
+        <v>1.2673611111111109E-2</v>
+      </c>
+      <c r="I7" s="9">
+        <v>3000</v>
+      </c>
+      <c r="J7" s="10">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="8">
+        <v>6.4236111111111117E-3</v>
+      </c>
+      <c r="E8" s="8">
+        <v>7.3070987654320976E-3</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1.4166666666666666E-2</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1.7638888888888885E-2</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1.4583333333333332E-2</v>
+      </c>
+      <c r="I8" s="9">
         <v>1000</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J8" s="10">
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>2</v>
-      </c>
-      <c r="B4" s="10" t="s">
+    <row r="9" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="8">
+        <v>6.4236111111111117E-3</v>
+      </c>
+      <c r="E9" s="8">
+        <v>7.3070987654320976E-3</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1.4166666666666666E-2</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1.7638888888888885E-2</v>
+      </c>
+      <c r="H9" s="8">
+        <v>1.5555555555555553E-2</v>
+      </c>
+      <c r="I9" s="9">
+        <v>3000</v>
+      </c>
+      <c r="J9" s="10">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D10" s="8">
+        <v>7.1180555555555554E-3</v>
+      </c>
+      <c r="E10" s="8">
+        <v>7.5385802469135803E-3</v>
+      </c>
+      <c r="F10" s="8">
+        <v>1.4861111111111111E-2</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1.833333333333333E-2</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1.7361111111111105E-2</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J10" s="10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="11">
-        <v>8.6805555555555551E-4</v>
-      </c>
-      <c r="E4" s="11">
-        <v>5.4552469135802466E-3</v>
-      </c>
-      <c r="F4" s="11">
-        <v>8.611111111111111E-3</v>
-      </c>
-      <c r="G4" s="11">
-        <v>1.2083333333333333E-2</v>
-      </c>
-      <c r="H4" s="11">
-        <v>7.6388888888888878E-3</v>
-      </c>
-      <c r="I4" s="12">
-        <v>3000</v>
-      </c>
-      <c r="J4" s="13">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>3</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="C11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="11">
-        <v>1.9097222222222222E-3</v>
-      </c>
-      <c r="E5" s="11">
-        <v>5.8024691358024693E-3</v>
-      </c>
-      <c r="F5" s="11">
-        <v>9.6527777777777775E-3</v>
-      </c>
-      <c r="G5" s="11">
-        <v>1.3124999999999998E-2</v>
-      </c>
-      <c r="H5" s="11">
-        <v>9.3749999999999997E-3</v>
-      </c>
-      <c r="I5" s="12">
-        <v>1000</v>
-      </c>
-      <c r="J5" s="13">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>4</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="11">
-        <v>3.2986111111111111E-3</v>
-      </c>
-      <c r="E6" s="11">
-        <v>6.2654320987654312E-3</v>
-      </c>
-      <c r="F6" s="11">
-        <v>1.1041666666666667E-2</v>
-      </c>
-      <c r="G6" s="11">
-        <v>1.4513888888888885E-2</v>
-      </c>
-      <c r="H6" s="11">
-        <v>1.0069444444444443E-2</v>
-      </c>
-      <c r="I6" s="12">
-        <v>3000</v>
-      </c>
-      <c r="J6" s="13">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>5</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="11">
-        <v>4.340277777777778E-3</v>
-      </c>
-      <c r="E7" s="11">
-        <v>6.6126543209876539E-3</v>
-      </c>
-      <c r="F7" s="11">
-        <v>1.2083333333333333E-2</v>
-      </c>
-      <c r="G7" s="11">
-        <v>1.5555555555555552E-2</v>
-      </c>
-      <c r="H7" s="11">
-        <v>1.1111111111111112E-2</v>
-      </c>
-      <c r="I7" s="12">
-        <v>3000</v>
-      </c>
-      <c r="J7" s="13">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>6</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="11">
-        <v>5.208333333333333E-3</v>
-      </c>
-      <c r="E8" s="11">
-        <v>6.9020061728395053E-3</v>
-      </c>
-      <c r="F8" s="11">
-        <v>1.2951388888888889E-2</v>
-      </c>
-      <c r="G8" s="11">
-        <v>1.6423611111111108E-2</v>
-      </c>
-      <c r="H8" s="11">
-        <v>1.2673611111111109E-2</v>
-      </c>
-      <c r="I8" s="12">
-        <v>3000</v>
-      </c>
-      <c r="J8" s="13">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <v>7</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="11">
-        <v>6.4236111111111117E-3</v>
-      </c>
-      <c r="E9" s="11">
-        <v>7.3070987654320976E-3</v>
-      </c>
-      <c r="F9" s="11">
-        <v>1.4166666666666666E-2</v>
-      </c>
-      <c r="G9" s="11">
-        <v>1.7638888888888885E-2</v>
-      </c>
-      <c r="H9" s="11">
-        <v>1.4583333333333332E-2</v>
-      </c>
-      <c r="I9" s="12">
-        <v>1000</v>
-      </c>
-      <c r="J9" s="13">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <v>8</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="11">
-        <v>6.4236111111111117E-3</v>
-      </c>
-      <c r="E10" s="11">
-        <v>7.3070987654320976E-3</v>
-      </c>
-      <c r="F10" s="11">
-        <v>1.4166666666666666E-2</v>
-      </c>
-      <c r="G10" s="11">
-        <v>1.7638888888888885E-2</v>
-      </c>
-      <c r="H10" s="11">
-        <v>1.5555555555555553E-2</v>
-      </c>
-      <c r="I10" s="12">
-        <v>3000</v>
-      </c>
-      <c r="J10" s="13">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <v>9</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="11">
+      <c r="D11" s="13">
         <v>7.1180555555555554E-3</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="13">
         <v>7.5385802469135803E-3</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="13">
         <v>1.4861111111111111E-2</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="13">
         <v>1.833333333333333E-2</v>
       </c>
-      <c r="H11" s="11">
-        <v>1.7361111111111105E-2</v>
-      </c>
-      <c r="I11" s="12">
-        <v>1000</v>
-      </c>
-      <c r="J11" s="13">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14">
-        <v>10</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="16">
-        <v>7.1180555555555554E-3</v>
-      </c>
-      <c r="E12" s="16">
-        <v>7.5385802469135803E-3</v>
-      </c>
-      <c r="F12" s="16">
-        <v>1.4861111111111111E-2</v>
-      </c>
-      <c r="G12" s="16">
+      <c r="H11" s="13">
         <v>1.833333333333333E-2</v>
       </c>
-      <c r="H12" s="16">
-        <v>1.833333333333333E-2</v>
-      </c>
-      <c r="I12" s="17">
-        <v>3000</v>
-      </c>
-      <c r="J12" s="18">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-    </row>
-    <row r="14" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="21"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-    </row>
-    <row r="15" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-    </row>
-    <row r="16" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
+      <c r="I11" s="14">
+        <v>3000</v>
+      </c>
+      <c r="J11" s="15">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+    </row>
+    <row r="13" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="18"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
-  </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
